--- a/experiments/nrp_sat_card_exp_results.xlsx
+++ b/experiments/nrp_sat_card_exp_results.xlsx
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.120389</v>
+        <v>0.118142</v>
       </c>
       <c r="G2" t="n">
-        <v>15.2</v>
+        <v>10.5</v>
       </c>
       <c r="H2" t="n">
         <v>20664</v>
@@ -521,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.119476</v>
+        <v>0.118242</v>
       </c>
       <c r="G3" t="n">
-        <v>15.4</v>
+        <v>10.8</v>
       </c>
       <c r="H3" t="n">
         <v>20664</v>
@@ -552,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.11946</v>
+        <v>0.119069</v>
       </c>
       <c r="G4" t="n">
-        <v>15.1</v>
+        <v>10.5</v>
       </c>
       <c r="H4" t="n">
         <v>20664</v>
@@ -583,10 +583,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.119133</v>
+        <v>0.119191</v>
       </c>
       <c r="G5" t="n">
-        <v>15.4</v>
+        <v>10.5</v>
       </c>
       <c r="H5" t="n">
         <v>20664</v>
@@ -614,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.121243</v>
+        <v>0.119295</v>
       </c>
       <c r="G6" t="n">
-        <v>15.4</v>
+        <v>10.5</v>
       </c>
       <c r="H6" t="n">
         <v>20664</v>
@@ -645,10 +645,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.119031</v>
+        <v>0.118984</v>
       </c>
       <c r="G7" t="n">
-        <v>15.4</v>
+        <v>10.4</v>
       </c>
       <c r="H7" t="n">
         <v>20664</v>
@@ -676,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.120293</v>
+        <v>0.120257</v>
       </c>
       <c r="G8" t="n">
-        <v>15.2</v>
+        <v>10.8</v>
       </c>
       <c r="H8" t="n">
         <v>20664</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.119319</v>
+        <v>0.119275</v>
       </c>
       <c r="G9" t="n">
-        <v>15.4</v>
+        <v>10.5</v>
       </c>
       <c r="H9" t="n">
         <v>20664</v>
@@ -738,10 +738,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.119111</v>
+        <v>0.119251</v>
       </c>
       <c r="G10" t="n">
-        <v>15.1</v>
+        <v>10.8</v>
       </c>
       <c r="H10" t="n">
         <v>20664</v>
@@ -769,10 +769,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.120858</v>
+        <v>0.120586</v>
       </c>
       <c r="G11" t="n">
-        <v>15.2</v>
+        <v>10.7</v>
       </c>
       <c r="H11" t="n">
         <v>20664</v>
@@ -802,10 +802,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1198313</v>
+        <v>0.1192292</v>
       </c>
       <c r="G12" t="n">
-        <v>15.28</v>
+        <v>10.6</v>
       </c>
       <c r="H12" t="n">
         <v>20664</v>
@@ -899,10 +899,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.157963</v>
+        <v>0.156424</v>
       </c>
       <c r="G2" t="n">
-        <v>20.6</v>
+        <v>16.7</v>
       </c>
       <c r="H2" t="n">
         <v>38124</v>
@@ -930,10 +930,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.157633</v>
+        <v>0.155539</v>
       </c>
       <c r="G3" t="n">
-        <v>20.6</v>
+        <v>16.7</v>
       </c>
       <c r="H3" t="n">
         <v>38124</v>
@@ -961,10 +961,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.156672</v>
+        <v>0.155525</v>
       </c>
       <c r="G4" t="n">
-        <v>20.5</v>
+        <v>16.7</v>
       </c>
       <c r="H4" t="n">
         <v>38124</v>
@@ -992,10 +992,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.157543</v>
+        <v>0.15739</v>
       </c>
       <c r="G5" t="n">
-        <v>20.6</v>
+        <v>16.7</v>
       </c>
       <c r="H5" t="n">
         <v>38124</v>
@@ -1023,10 +1023,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.157884</v>
+        <v>0.155582</v>
       </c>
       <c r="G6" t="n">
-        <v>20.6</v>
+        <v>16.7</v>
       </c>
       <c r="H6" t="n">
         <v>38124</v>
@@ -1054,10 +1054,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.15639</v>
+        <v>0.16161</v>
       </c>
       <c r="G7" t="n">
-        <v>20.5</v>
+        <v>16.7</v>
       </c>
       <c r="H7" t="n">
         <v>38124</v>
@@ -1085,10 +1085,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.159989</v>
+        <v>0.157626</v>
       </c>
       <c r="G8" t="n">
-        <v>20.6</v>
+        <v>16.7</v>
       </c>
       <c r="H8" t="n">
         <v>38124</v>
@@ -1116,10 +1116,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.157549</v>
+        <v>0.155436</v>
       </c>
       <c r="G9" t="n">
-        <v>20.4</v>
+        <v>16.7</v>
       </c>
       <c r="H9" t="n">
         <v>38124</v>
@@ -1147,10 +1147,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.157635</v>
+        <v>0.155499</v>
       </c>
       <c r="G10" t="n">
-        <v>20.6</v>
+        <v>16.7</v>
       </c>
       <c r="H10" t="n">
         <v>38124</v>
@@ -1178,10 +1178,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.156529</v>
+        <v>0.156513</v>
       </c>
       <c r="G11" t="n">
-        <v>20.6</v>
+        <v>16.7</v>
       </c>
       <c r="H11" t="n">
         <v>38124</v>
@@ -1211,10 +1211,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1575787</v>
+        <v>0.1567144</v>
       </c>
       <c r="G12" t="n">
-        <v>20.56</v>
+        <v>16.7</v>
       </c>
       <c r="H12" t="n">
         <v>38124</v>
@@ -1308,10 +1308,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.194179</v>
+        <v>0.191801</v>
       </c>
       <c r="G2" t="n">
-        <v>22.3</v>
+        <v>24.2</v>
       </c>
       <c r="H2" t="n">
         <v>55584</v>
@@ -1339,10 +1339,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.195124</v>
+        <v>0.193131</v>
       </c>
       <c r="G3" t="n">
-        <v>22.3</v>
+        <v>24.2</v>
       </c>
       <c r="H3" t="n">
         <v>55584</v>
@@ -1370,10 +1370,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.193293</v>
+        <v>0.19076</v>
       </c>
       <c r="G4" t="n">
-        <v>22.3</v>
+        <v>24.8</v>
       </c>
       <c r="H4" t="n">
         <v>55584</v>
@@ -1401,10 +1401,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.191797</v>
+        <v>0.190606</v>
       </c>
       <c r="G5" t="n">
-        <v>22.3</v>
+        <v>24.7</v>
       </c>
       <c r="H5" t="n">
         <v>55584</v>
@@ -1432,10 +1432,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.192876</v>
+        <v>0.190635</v>
       </c>
       <c r="G6" t="n">
-        <v>22.3</v>
+        <v>24.2</v>
       </c>
       <c r="H6" t="n">
         <v>55584</v>
@@ -1463,10 +1463,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.190823</v>
+        <v>0.19826</v>
       </c>
       <c r="G7" t="n">
-        <v>22.2</v>
+        <v>24.2</v>
       </c>
       <c r="H7" t="n">
         <v>55584</v>
@@ -1494,10 +1494,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.195966</v>
+        <v>0.195458</v>
       </c>
       <c r="G8" t="n">
-        <v>22.2</v>
+        <v>24.1</v>
       </c>
       <c r="H8" t="n">
         <v>55584</v>
@@ -1525,10 +1525,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.190891</v>
+        <v>0.193167</v>
       </c>
       <c r="G9" t="n">
-        <v>22.3</v>
+        <v>24.2</v>
       </c>
       <c r="H9" t="n">
         <v>55584</v>
@@ -1556,10 +1556,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.195535</v>
+        <v>0.194254</v>
       </c>
       <c r="G10" t="n">
-        <v>22.2</v>
+        <v>24.2</v>
       </c>
       <c r="H10" t="n">
         <v>55584</v>
@@ -1587,10 +1587,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.196075</v>
+        <v>0.192978</v>
       </c>
       <c r="G11" t="n">
-        <v>22.3</v>
+        <v>24.2</v>
       </c>
       <c r="H11" t="n">
         <v>55584</v>
@@ -1620,10 +1620,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1936559</v>
+        <v>0.193105</v>
       </c>
       <c r="G12" t="n">
-        <v>22.27</v>
+        <v>24.3</v>
       </c>
       <c r="H12" t="n">
         <v>55584</v>
@@ -1717,10 +1717,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.226099</v>
+        <v>0.222794</v>
       </c>
       <c r="G2" t="n">
-        <v>33.8</v>
+        <v>29.7</v>
       </c>
       <c r="H2" t="n">
         <v>73044</v>
@@ -1748,10 +1748,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.230502</v>
+        <v>0.223125</v>
       </c>
       <c r="G3" t="n">
-        <v>34.2</v>
+        <v>28.7</v>
       </c>
       <c r="H3" t="n">
         <v>73044</v>
@@ -1779,10 +1779,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.22485</v>
+        <v>0.224586</v>
       </c>
       <c r="G4" t="n">
-        <v>33.9</v>
+        <v>29.1</v>
       </c>
       <c r="H4" t="n">
         <v>73044</v>
@@ -1810,10 +1810,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.226995</v>
+        <v>0.224769</v>
       </c>
       <c r="G5" t="n">
-        <v>34</v>
+        <v>29.9</v>
       </c>
       <c r="H5" t="n">
         <v>73044</v>
@@ -1841,10 +1841,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.22384</v>
+        <v>0.22386</v>
       </c>
       <c r="G6" t="n">
-        <v>33.9</v>
+        <v>29.1</v>
       </c>
       <c r="H6" t="n">
         <v>73044</v>
@@ -1872,10 +1872,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.223829</v>
+        <v>0.227626</v>
       </c>
       <c r="G7" t="n">
-        <v>33.8</v>
+        <v>29.3</v>
       </c>
       <c r="H7" t="n">
         <v>73044</v>
@@ -1903,10 +1903,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.226159</v>
+        <v>0.226987</v>
       </c>
       <c r="G8" t="n">
-        <v>34.1</v>
+        <v>29.2</v>
       </c>
       <c r="H8" t="n">
         <v>73044</v>
@@ -1934,10 +1934,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.225578</v>
+        <v>0.223776</v>
       </c>
       <c r="G9" t="n">
-        <v>33.5</v>
+        <v>29.3</v>
       </c>
       <c r="H9" t="n">
         <v>73044</v>
@@ -1965,10 +1965,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.225847</v>
+        <v>0.229073</v>
       </c>
       <c r="G10" t="n">
-        <v>33.4</v>
+        <v>29.3</v>
       </c>
       <c r="H10" t="n">
         <v>73044</v>
@@ -1996,10 +1996,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.228075</v>
+        <v>0.230564</v>
       </c>
       <c r="G11" t="n">
-        <v>33.8</v>
+        <v>28.7</v>
       </c>
       <c r="H11" t="n">
         <v>73044</v>
@@ -2029,10 +2029,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2261774</v>
+        <v>0.225716</v>
       </c>
       <c r="G12" t="n">
-        <v>33.84</v>
+        <v>29.23</v>
       </c>
       <c r="H12" t="n">
         <v>73044</v>

--- a/experiments/nrp_sat_card_exp_results.xlsx
+++ b/experiments/nrp_sat_card_exp_results.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,20 +452,30 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>wall_time_sec</t>
+          <t>encoding_time_sec</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>solving_time_sec</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>total_time_sec</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>peak_memory_mb</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>total_clauses</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>total_variables</t>
         </is>
@@ -490,17 +500,19 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.118142</v>
+        <v>0.07001060000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>10.5</v>
+        <v>0.0365131</v>
       </c>
       <c r="H2" t="n">
-        <v>20664</v>
+        <v>0.106524</v>
       </c>
       <c r="I2" t="n">
-        <v>11093</v>
-      </c>
+        <v>10.8</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -521,17 +533,19 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.118242</v>
+        <v>0.06988850000000001</v>
       </c>
       <c r="G3" t="n">
+        <v>0.0371189</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.107007</v>
+      </c>
+      <c r="I3" t="n">
         <v>10.8</v>
       </c>
-      <c r="H3" t="n">
-        <v>20664</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11093</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -552,17 +566,19 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.119069</v>
+        <v>0.07102650000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>10.5</v>
+        <v>0.0383534</v>
       </c>
       <c r="H4" t="n">
-        <v>20664</v>
+        <v>0.10938</v>
       </c>
       <c r="I4" t="n">
-        <v>11093</v>
-      </c>
+        <v>10.8</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -583,17 +599,19 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.119191</v>
+        <v>0.06945850000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>10.5</v>
+        <v>0.036635</v>
       </c>
       <c r="H5" t="n">
-        <v>20664</v>
+        <v>0.106094</v>
       </c>
       <c r="I5" t="n">
-        <v>11093</v>
-      </c>
+        <v>10.7</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -614,17 +632,19 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.119295</v>
+        <v>0.07028139999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>10.5</v>
+        <v>0.037701</v>
       </c>
       <c r="H6" t="n">
-        <v>20664</v>
+        <v>0.107982</v>
       </c>
       <c r="I6" t="n">
-        <v>11093</v>
-      </c>
+        <v>10.8</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -645,17 +665,19 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.118984</v>
+        <v>0.07000869999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>10.4</v>
+        <v>0.0366247</v>
       </c>
       <c r="H7" t="n">
-        <v>20664</v>
+        <v>0.106633</v>
       </c>
       <c r="I7" t="n">
-        <v>11093</v>
-      </c>
+        <v>10.8</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -676,17 +698,19 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.120257</v>
+        <v>0.0695495</v>
       </c>
       <c r="G8" t="n">
-        <v>10.8</v>
+        <v>0.0365601</v>
       </c>
       <c r="H8" t="n">
-        <v>20664</v>
+        <v>0.10611</v>
       </c>
       <c r="I8" t="n">
-        <v>11093</v>
-      </c>
+        <v>10.7</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -707,17 +731,19 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.119275</v>
+        <v>0.0698445</v>
       </c>
       <c r="G9" t="n">
-        <v>10.5</v>
+        <v>0.037205</v>
       </c>
       <c r="H9" t="n">
-        <v>20664</v>
+        <v>0.10705</v>
       </c>
       <c r="I9" t="n">
-        <v>11093</v>
-      </c>
+        <v>10.8</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -738,17 +764,19 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.119251</v>
+        <v>0.07100910000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>10.8</v>
+        <v>0.0374241</v>
       </c>
       <c r="H10" t="n">
-        <v>20664</v>
+        <v>0.108433</v>
       </c>
       <c r="I10" t="n">
-        <v>11093</v>
-      </c>
+        <v>10.7</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -769,17 +797,19 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.120586</v>
+        <v>0.0696036</v>
       </c>
       <c r="G11" t="n">
+        <v>0.036656</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.10626</v>
+      </c>
+      <c r="I11" t="n">
         <v>10.7</v>
       </c>
-      <c r="H11" t="n">
-        <v>20664</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11093</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -802,17 +832,19 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1192292</v>
+        <v>0.07006809</v>
       </c>
       <c r="G12" t="n">
-        <v>10.6</v>
+        <v>0.03707913</v>
       </c>
       <c r="H12" t="n">
-        <v>20664</v>
+        <v>0.1071473</v>
       </c>
       <c r="I12" t="n">
-        <v>11093</v>
-      </c>
+        <v>10.76</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -825,7 +857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -861,20 +893,30 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>wall_time_sec</t>
+          <t>encoding_time_sec</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>solving_time_sec</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>total_time_sec</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>peak_memory_mb</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>total_clauses</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>total_variables</t>
         </is>
@@ -899,17 +941,19 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.156424</v>
+        <v>0.0987603</v>
       </c>
       <c r="G2" t="n">
-        <v>16.7</v>
+        <v>0.0452667</v>
       </c>
       <c r="H2" t="n">
-        <v>38124</v>
+        <v>0.144027</v>
       </c>
       <c r="I2" t="n">
-        <v>20153</v>
-      </c>
+        <v>16.8</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -930,17 +974,19 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.155539</v>
+        <v>0.100749</v>
       </c>
       <c r="G3" t="n">
+        <v>0.0449665</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.145715</v>
+      </c>
+      <c r="I3" t="n">
         <v>16.7</v>
       </c>
-      <c r="H3" t="n">
-        <v>38124</v>
-      </c>
-      <c r="I3" t="n">
-        <v>20153</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -961,17 +1007,19 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.155525</v>
+        <v>0.0971588</v>
       </c>
       <c r="G4" t="n">
+        <v>0.0440111</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.14117</v>
+      </c>
+      <c r="I4" t="n">
         <v>16.7</v>
       </c>
-      <c r="H4" t="n">
-        <v>38124</v>
-      </c>
-      <c r="I4" t="n">
-        <v>20153</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -992,17 +1040,19 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.15739</v>
+        <v>0.0980915</v>
       </c>
       <c r="G5" t="n">
-        <v>16.7</v>
+        <v>0.0440222</v>
       </c>
       <c r="H5" t="n">
-        <v>38124</v>
+        <v>0.142114</v>
       </c>
       <c r="I5" t="n">
-        <v>20153</v>
-      </c>
+        <v>16.8</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1023,17 +1073,19 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.155582</v>
+        <v>0.0989569</v>
       </c>
       <c r="G6" t="n">
+        <v>0.0448444</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.143801</v>
+      </c>
+      <c r="I6" t="n">
         <v>16.7</v>
       </c>
-      <c r="H6" t="n">
-        <v>38124</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20153</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1054,17 +1106,19 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.16161</v>
+        <v>0.0994543</v>
       </c>
       <c r="G7" t="n">
+        <v>0.0451059</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.14456</v>
+      </c>
+      <c r="I7" t="n">
         <v>16.7</v>
       </c>
-      <c r="H7" t="n">
-        <v>38124</v>
-      </c>
-      <c r="I7" t="n">
-        <v>20153</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1085,17 +1139,19 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.157626</v>
+        <v>0.0992628</v>
       </c>
       <c r="G8" t="n">
+        <v>0.0448333</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.144096</v>
+      </c>
+      <c r="I8" t="n">
         <v>16.7</v>
       </c>
-      <c r="H8" t="n">
-        <v>38124</v>
-      </c>
-      <c r="I8" t="n">
-        <v>20153</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1116,17 +1172,19 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.155436</v>
+        <v>0.0979723</v>
       </c>
       <c r="G9" t="n">
+        <v>0.04573</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.143702</v>
+      </c>
+      <c r="I9" t="n">
         <v>16.7</v>
       </c>
-      <c r="H9" t="n">
-        <v>38124</v>
-      </c>
-      <c r="I9" t="n">
-        <v>20153</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1147,17 +1205,19 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.155499</v>
+        <v>0.09741660000000001</v>
       </c>
       <c r="G10" t="n">
+        <v>0.043687</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.141104</v>
+      </c>
+      <c r="I10" t="n">
         <v>16.7</v>
       </c>
-      <c r="H10" t="n">
-        <v>38124</v>
-      </c>
-      <c r="I10" t="n">
-        <v>20153</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1178,17 +1238,19 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.156513</v>
+        <v>0.0973398</v>
       </c>
       <c r="G11" t="n">
+        <v>0.0444539</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.141794</v>
+      </c>
+      <c r="I11" t="n">
         <v>16.7</v>
       </c>
-      <c r="H11" t="n">
-        <v>38124</v>
-      </c>
-      <c r="I11" t="n">
-        <v>20153</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1211,17 +1273,19 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1567144</v>
+        <v>0.09851623</v>
       </c>
       <c r="G12" t="n">
-        <v>16.7</v>
+        <v>0.0446921</v>
       </c>
       <c r="H12" t="n">
-        <v>38124</v>
+        <v>0.1432083</v>
       </c>
       <c r="I12" t="n">
-        <v>20153</v>
-      </c>
+        <v>16.72</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1234,7 +1298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1270,20 +1334,30 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>wall_time_sec</t>
+          <t>encoding_time_sec</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>solving_time_sec</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>total_time_sec</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>peak_memory_mb</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>total_clauses</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>total_variables</t>
         </is>
@@ -1308,17 +1382,19 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.191801</v>
+        <v>0.126339</v>
       </c>
       <c r="G2" t="n">
-        <v>24.2</v>
+        <v>0.0481958</v>
       </c>
       <c r="H2" t="n">
-        <v>55584</v>
+        <v>0.174535</v>
       </c>
       <c r="I2" t="n">
-        <v>29213</v>
-      </c>
+        <v>24.6</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1339,17 +1415,19 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.193131</v>
+        <v>0.12769</v>
       </c>
       <c r="G3" t="n">
+        <v>0.0486617</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.176351</v>
+      </c>
+      <c r="I3" t="n">
         <v>24.2</v>
       </c>
-      <c r="H3" t="n">
-        <v>55584</v>
-      </c>
-      <c r="I3" t="n">
-        <v>29213</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1370,17 +1448,19 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.19076</v>
+        <v>0.129951</v>
       </c>
       <c r="G4" t="n">
-        <v>24.8</v>
+        <v>0.0505224</v>
       </c>
       <c r="H4" t="n">
-        <v>55584</v>
+        <v>0.180473</v>
       </c>
       <c r="I4" t="n">
-        <v>29213</v>
-      </c>
+        <v>24.6</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1401,17 +1481,19 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.190606</v>
+        <v>0.133103</v>
       </c>
       <c r="G5" t="n">
-        <v>24.7</v>
+        <v>0.0477876</v>
       </c>
       <c r="H5" t="n">
-        <v>55584</v>
+        <v>0.18089</v>
       </c>
       <c r="I5" t="n">
-        <v>29213</v>
-      </c>
+        <v>24.2</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1432,17 +1514,19 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.190635</v>
+        <v>0.131039</v>
       </c>
       <c r="G6" t="n">
-        <v>24.2</v>
+        <v>0.0496911</v>
       </c>
       <c r="H6" t="n">
-        <v>55584</v>
+        <v>0.18073</v>
       </c>
       <c r="I6" t="n">
-        <v>29213</v>
-      </c>
+        <v>24.8</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1463,17 +1547,19 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.19826</v>
+        <v>0.135257</v>
       </c>
       <c r="G7" t="n">
+        <v>0.0510407</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.186298</v>
+      </c>
+      <c r="I7" t="n">
         <v>24.2</v>
       </c>
-      <c r="H7" t="n">
-        <v>55584</v>
-      </c>
-      <c r="I7" t="n">
-        <v>29213</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1494,17 +1580,19 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.195458</v>
+        <v>0.128737</v>
       </c>
       <c r="G8" t="n">
-        <v>24.1</v>
+        <v>0.049667</v>
       </c>
       <c r="H8" t="n">
-        <v>55584</v>
+        <v>0.178404</v>
       </c>
       <c r="I8" t="n">
-        <v>29213</v>
-      </c>
+        <v>24.6</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1525,17 +1613,19 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.193167</v>
+        <v>0.12783</v>
       </c>
       <c r="G9" t="n">
-        <v>24.2</v>
+        <v>0.0498899</v>
       </c>
       <c r="H9" t="n">
-        <v>55584</v>
+        <v>0.17772</v>
       </c>
       <c r="I9" t="n">
-        <v>29213</v>
-      </c>
+        <v>24.6</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1556,17 +1646,19 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.194254</v>
+        <v>0.130924</v>
       </c>
       <c r="G10" t="n">
-        <v>24.2</v>
+        <v>0.0501136</v>
       </c>
       <c r="H10" t="n">
-        <v>55584</v>
+        <v>0.181038</v>
       </c>
       <c r="I10" t="n">
-        <v>29213</v>
-      </c>
+        <v>24.5</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1587,17 +1679,19 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.192978</v>
+        <v>0.133274</v>
       </c>
       <c r="G11" t="n">
+        <v>0.0510449</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.184319</v>
+      </c>
+      <c r="I11" t="n">
         <v>24.2</v>
       </c>
-      <c r="H11" t="n">
-        <v>55584</v>
-      </c>
-      <c r="I11" t="n">
-        <v>29213</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1620,17 +1714,19 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.193105</v>
+        <v>0.1304144</v>
       </c>
       <c r="G12" t="n">
-        <v>24.3</v>
+        <v>0.04966147</v>
       </c>
       <c r="H12" t="n">
-        <v>55584</v>
+        <v>0.1800758</v>
       </c>
       <c r="I12" t="n">
-        <v>29213</v>
-      </c>
+        <v>24.45</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1643,7 +1739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1679,20 +1775,30 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>wall_time_sec</t>
+          <t>encoding_time_sec</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>solving_time_sec</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>total_time_sec</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>peak_memory_mb</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>total_clauses</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>total_variables</t>
         </is>
@@ -1717,17 +1823,19 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.222794</v>
+        <v>0.159301</v>
       </c>
       <c r="G2" t="n">
-        <v>29.7</v>
+        <v>0.052887</v>
       </c>
       <c r="H2" t="n">
-        <v>73044</v>
+        <v>0.212188</v>
       </c>
       <c r="I2" t="n">
-        <v>38273</v>
-      </c>
+        <v>29.3</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1748,17 +1856,19 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.223125</v>
+        <v>0.155994</v>
       </c>
       <c r="G3" t="n">
-        <v>28.7</v>
+        <v>0.0546329</v>
       </c>
       <c r="H3" t="n">
-        <v>73044</v>
+        <v>0.210627</v>
       </c>
       <c r="I3" t="n">
-        <v>38273</v>
-      </c>
+        <v>29.3</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1779,17 +1889,19 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.224586</v>
+        <v>0.159755</v>
       </c>
       <c r="G4" t="n">
-        <v>29.1</v>
+        <v>0.0522819</v>
       </c>
       <c r="H4" t="n">
-        <v>73044</v>
+        <v>0.212037</v>
       </c>
       <c r="I4" t="n">
-        <v>38273</v>
-      </c>
+        <v>29.2</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1810,17 +1922,19 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.224769</v>
+        <v>0.161734</v>
       </c>
       <c r="G5" t="n">
-        <v>29.9</v>
+        <v>0.0543456</v>
       </c>
       <c r="H5" t="n">
-        <v>73044</v>
+        <v>0.216079</v>
       </c>
       <c r="I5" t="n">
-        <v>38273</v>
-      </c>
+        <v>29.5</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1841,17 +1955,19 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.22386</v>
+        <v>0.154287</v>
       </c>
       <c r="G6" t="n">
-        <v>29.1</v>
+        <v>0.0511792</v>
       </c>
       <c r="H6" t="n">
-        <v>73044</v>
+        <v>0.205467</v>
       </c>
       <c r="I6" t="n">
-        <v>38273</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1872,17 +1988,19 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.227626</v>
+        <v>0.155964</v>
       </c>
       <c r="G7" t="n">
-        <v>29.3</v>
+        <v>0.0519663</v>
       </c>
       <c r="H7" t="n">
-        <v>73044</v>
+        <v>0.20793</v>
       </c>
       <c r="I7" t="n">
-        <v>38273</v>
-      </c>
+        <v>29.7</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1903,17 +2021,19 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.226987</v>
+        <v>0.163388</v>
       </c>
       <c r="G8" t="n">
-        <v>29.2</v>
+        <v>0.0524677</v>
       </c>
       <c r="H8" t="n">
-        <v>73044</v>
+        <v>0.215855</v>
       </c>
       <c r="I8" t="n">
-        <v>38273</v>
-      </c>
+        <v>29.8</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1934,17 +2054,19 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.223776</v>
+        <v>0.163394</v>
       </c>
       <c r="G9" t="n">
-        <v>29.3</v>
+        <v>0.0556584</v>
       </c>
       <c r="H9" t="n">
-        <v>73044</v>
+        <v>0.219052</v>
       </c>
       <c r="I9" t="n">
-        <v>38273</v>
-      </c>
+        <v>29.7</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1965,17 +2087,19 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.229073</v>
+        <v>0.156548</v>
       </c>
       <c r="G10" t="n">
+        <v>0.0537551</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.210303</v>
+      </c>
+      <c r="I10" t="n">
         <v>29.3</v>
       </c>
-      <c r="H10" t="n">
-        <v>73044</v>
-      </c>
-      <c r="I10" t="n">
-        <v>38273</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1996,17 +2120,19 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.230564</v>
+        <v>0.158463</v>
       </c>
       <c r="G11" t="n">
-        <v>28.7</v>
+        <v>0.0547844</v>
       </c>
       <c r="H11" t="n">
-        <v>73044</v>
+        <v>0.213247</v>
       </c>
       <c r="I11" t="n">
-        <v>38273</v>
-      </c>
+        <v>29.8</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2029,17 +2155,19 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.225716</v>
+        <v>0.1588828</v>
       </c>
       <c r="G12" t="n">
-        <v>29.23</v>
+        <v>0.05339585</v>
       </c>
       <c r="H12" t="n">
-        <v>73044</v>
+        <v>0.2122785</v>
       </c>
       <c r="I12" t="n">
-        <v>38273</v>
-      </c>
+        <v>29.46</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
